--- a/biology/Médecine/Lazaret_de_la_Ravine-à-Jacques/Lazaret_de_la_Ravine-à-Jacques.xlsx
+++ b/biology/Médecine/Lazaret_de_la_Ravine-à-Jacques/Lazaret_de_la_Ravine-à-Jacques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lazaret_de_la_Ravine-%C3%A0-Jacques</t>
+          <t>Lazaret_de_la_Ravine-à-Jacques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lazaret de la Ravine-à-Jacques était un lazaret du nord-ouest de La Réunion, département et région d'outre-mer français. Il a été créé à la fin du XVIIIe siècle, alors que l'île était encore une colonie du Second empire colonial. Comme son nom l'indique, il était situé dans la ravine à Jacques, ravine isolée relevant de la commune de Saint-Denis. Il a d'abord été destiné aux esclaves atteints de la variole, puis après 1848, il a servi de lieu de quarantaine pour les Indiens et autres travailleurs arrivant dans l'île en tant qu'engagés. Devenu trop petit, sans possibilité d'extension dans un site étroit et encaissé, il a été remplacé à partir de 1860 par les lazarets de la Grande-Chaloupe, construit un peu plus à l'ouest, au lieu dit la Grande Chaloupe dons la ravine homonyme.
 Il n'en reste aujourd'hui quasiment plus trace.
